--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2903.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2903.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.214111171555231</v>
+        <v>1.494470477104187</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.727225422859192</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.186141967773438</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.510639905929565</v>
       </c>
       <c r="E1">
-        <v>1.199869903382202</v>
+        <v>3.901979207992554</v>
       </c>
     </row>
   </sheetData>
